--- a/biology/Botanique/Hyperion_(arbre)/Hyperion_(arbre).xlsx
+++ b/biology/Botanique/Hyperion_(arbre)/Hyperion_(arbre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hyperion est le nom d'un séquoia à feuilles d'if de Californie du Nord d’environ 800 ans dont la taille est de 116 mètres, ce qui en fait l'arbre le plus haut du monde connu[1].
+Hyperion est le nom d'un séquoia à feuilles d'if de Californie du Nord d’environ 800 ans dont la taille est de 116 mètres, ce qui en fait l'arbre le plus haut du monde connu.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'emplacement exact de l'arbre n'a pas été rendu public, pour éviter qu'un afflux touristique ne détruise l'écosystème environnant. À l'apex de l'arbre, le bourgeon sommital culminant à 116 m a périclité après avoir été déformé, peut-être par des pics, à la fin des années 2000. La récupération des 25 cm ainsi perdus prendra plusieurs années.
 </t>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été découvert le 8 septembre 2006 par le chercheur Chris Atkins et le naturaliste amateur Michael Taylor, dans une zone reculée du parc national de Redwood en Californie.
 </t>
